--- a/medicine/Premiers secours et secourisme/Emergency_Response_Unit_(FISCR)/Emergency_Response_Unit_(FISCR).xlsx
+++ b/medicine/Premiers secours et secourisme/Emergency_Response_Unit_(FISCR)/Emergency_Response_Unit_(FISCR).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Emergency Response Unit (Équipes de réponse aux urgences), abrégé en ERU, sont des équipes créées par la fédération internationale des Sociétés de la Croix-Rouge et du Croissant-Rouge.
@@ -512,12 +524,14 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les catastrophes touchent chaque année des millions d’individus, semant la désolation et la mort, et plus de 90 % des décès liés à ces phénomènes surviennent dans les pays en développement. Lorsqu’une catastrophe frappe, ce sont des années d’efforts de développement qui peuvent être réduites à néant en l’espace de quelques secondes. Souvent, les effets des catastrophes sont exacerbés par l’instabilité économique et politique, et des services publics déjà fragiles – santé, approvisionnement en eau et assainissement, notamment – se retrouvent plus affaiblis encore. 
 Les désastres à répétition, comme les inondations au Mozambique, minent les efforts de relèvement des sinistrés, les privant en particulier de récoltes. Les crises deviennent aussi plus complexes, avec un impact qui tend à se prolonger.
 Se préparer soigneusement en prévision de tels évènements est un bon moyen d’en limiter les conséquences – d’où l’idée de créer les unités d’intervention d’urgence (Emergency Response Units ou ERU), déployées pour la première fois en 1994.
-Le principe des ERU est d'intervenir sur des zones atteintes, selon un mode opératoire identique à toutes les ERU des autres sociétés nationales. Elles interviennent en soutien à la société nationale hôte, elle-même dépassée par les évènements. Les ERU, outil de la fédération internationale des Sociétés de la Croix-Rouge et du Croissant-Rouge[1] sont standardisées et interviennent en complète autonomie. Elles travaillent selon le code de conduite du mouvement international de la Croix-Rouge et du Croissant-Rouge.
+Le principe des ERU est d'intervenir sur des zones atteintes, selon un mode opératoire identique à toutes les ERU des autres sociétés nationales. Elles interviennent en soutien à la société nationale hôte, elle-même dépassée par les évènements. Les ERU, outil de la fédération internationale des Sociétés de la Croix-Rouge et du Croissant-Rouge sont standardisées et interviennent en complète autonomie. Elles travaillent selon le code de conduite du mouvement international de la Croix-Rouge et du Croissant-Rouge.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est à la fin des années 1980 et durant les années 1990 qu’a commencé à se manifester clairement la complexité croissante des situations d’urgence. Le terrible séisme de 1988 en Arménie, l’exode des Kurdes durant la guerre du Golfe et la crise des Grands Lacs, notamment, ont débouché sur des exigences d’une ampleur sans précédent vis-à-vis des organisations humanitaires. Dans la précipitation à y répondre, des erreurs ont été commises, comme l’expédition à Goma d’équipements hospitaliers que nul n’était formé à utiliser. C’est alors que la fédération a résolu de mettre en œuvre des interventions mieux ciblées et mieux coordonnées – et les ERU sont devenues partie intégrante de ce processus.
 L’idée était de réduire les délais d’intervention en cas de catastrophe en constituant des équipes de spécialistes volontaires ayant suivi une formation spécifique et dotés d’équipements standard conditionnés et prêts à l’emploi. Les membres des équipes devaient aussi se connaître déjà les uns les autres.
@@ -584,9 +600,11 @@
           <t>Croix-Rouge française</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actuellement, la Croix-Rouge française possède actuellement cinq ERU[2] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actuellement, la Croix-Rouge française possède actuellement cinq ERU : 
 Une équipe médicale (Basic Health Care, BHC) chargé de la prise en charge de la santé communautaire ;
 Une équipe logistique pour relancer l'activité aéroportuaire d'une capitale par exemple ou faciliter le dédouanement et réapprovisionnement des équipes humanitaires sur le terrain ;
 Une équipe de traitement de l'eau et de l'assainissement (Water &amp; Sanitation) permettant la distribution d'eau de masse afin de couvrir les besoins pour un maximum de 40 000 personnes par jour ;
@@ -624,23 +642,168 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soins de santé de base
-Ces unités assurent en urgence des soins curatifs, préventifs et communautaires essentiels. Dans la mesure du possible, elles aident, remettent en état ou consolident les services de santé existants. En matière de soins de santé primaires, elles peuvent répondre aux besoins de quelque 30 000 personnes. Chaque unité dispose par ailleurs de 20 lits pour les patients qui doivent être gardés en observation.
-Hôpitaux de recours
-Ces unités, qui comprennent des divisions médicales et chirurgicales structurées en modules, peuvent assurer un éventail complet de services quand les structures médicales locales sont insuffisantes ou ont été détruites. Dotées de 120 à 150 lits, elles ont une capacité qui leur permet de desservir jusqu’à 250 000 personnes.
-Logistique
-Ces unités ont pour mission de gérer efficacement la réception, le dédouanement, le stockage et la distribution des secours. Elles peuvent aussi être appelées à préparer le terrain avant l’arrivée d’autres ERU.
+          <t>Soins de santé de base</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces unités assurent en urgence des soins curatifs, préventifs et communautaires essentiels. Dans la mesure du possible, elles aident, remettent en état ou consolident les services de santé existants. En matière de soins de santé primaires, elles peuvent répondre aux besoins de quelque 30 000 personnes. Chaque unité dispose par ailleurs de 20 lits pour les patients qui doivent être gardés en observation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Emergency_Response_Unit_(FISCR)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emergency_Response_Unit_(FISCR)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les ERU</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hôpitaux de recours</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces unités, qui comprennent des divisions médicales et chirurgicales structurées en modules, peuvent assurer un éventail complet de services quand les structures médicales locales sont insuffisantes ou ont été détruites. Dotées de 120 à 150 lits, elles ont une capacité qui leur permet de desservir jusqu’à 250 000 personnes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Emergency_Response_Unit_(FISCR)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emergency_Response_Unit_(FISCR)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les ERU</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Logistique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces unités ont pour mission de gérer efficacement la réception, le dédouanement, le stockage et la distribution des secours. Elles peuvent aussi être appelées à préparer le terrain avant l’arrivée d’autres ERU.
 Relief
 Ces unités ont pour tâche la solidarité, spécialisée dans la mise en place et la gestion de processus de distribution d’aide humanitaire à grande échelle.
-Eau
-Ces unités watsan comprennent quatre modules :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Emergency_Response_Unit_(FISCR)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emergency_Response_Unit_(FISCR)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les ERU</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Eau</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces unités watsan comprennent quatre modules :
 Module de traitement et d’approvisionnement, qui traite jusqu’à 600 000 litres d’eau par jour et approvisionne en eau potable jusqu’à 40 000 personnes ;
 Module de distribution et de transport, qui stocke et distribue jusqu’à 75 000 litres d’eau potable par jour à trois réseaux distincts de stockage et de distribution (ce module n’est pas équipé pour traiter l’eau brute) ;
 Module d’approvisionnement en eau purifiée et d’assainissement, qui traite et distribue de l’eau potable et fournit des services d’assainissement de base à des établissements de santé, ainsi qu’à une population pouvant atteindre 15 000 personnes ;
 Module d’assainissement à grande échelle, qui peut fournir des services d’assainissement de base à quelque 40 000 personnes.
-Télécommunications
-Ces unités ont pour tâche de mettre en place un système de télécommunication reliant la zone touchée par la catastrophe, les divers bureaux sur le terrain, les délégations, les sociétés nationales et le secrétariat de la fédération internationale des Sociétés de la Croix-Rouge et du Croissant-Rouge à Genève[3],[4],[5],[6],[7].
-Grâce à ces équipes, le secrétariat est en mesure de fournir des informations précises sur la situation, d’anticiper les besoins et de rendre compte de l’utilisation des contributions reçues [8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Emergency_Response_Unit_(FISCR)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emergency_Response_Unit_(FISCR)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les ERU</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Télécommunications</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces unités ont pour tâche de mettre en place un système de télécommunication reliant la zone touchée par la catastrophe, les divers bureaux sur le terrain, les délégations, les sociétés nationales et le secrétariat de la fédération internationale des Sociétés de la Croix-Rouge et du Croissant-Rouge à Genève.
+Grâce à ces équipes, le secrétariat est en mesure de fournir des informations précises sur la situation, d’anticiper les besoins et de rendre compte de l’utilisation des contributions reçues .
 </t>
         </is>
       </c>
